--- a/data/hotels_by_city/Houston/Houston_shard_626.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_626.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d240483-Reviews-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-HoustonBrookhollow-NW.h856308.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1508 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r571360686-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>240483</t>
+  </si>
+  <si>
+    <t>571360686</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>What you would expect</t>
+  </si>
+  <si>
+    <t>Ok so the bullet proof glass when you check in is a bit disconcerting,  but get past that and the rooms are clean,  the WiFi is fast and the breakfast isn’t great but it’s OK.  I have stayed there 20 plus times over the years.  Trust be nothing fancy but for what you pay is worth it. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Ok so the bullet proof glass when you check in is a bit disconcerting,  but get past that and the rooms are clean,  the WiFi is fast and the breakfast isn’t great but it’s OK.  I have stayed there 20 plus times over the years.  Trust be nothing fancy but for what you pay is worth it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r566308427-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566308427</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r543843340-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543843340</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r539151524-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539151524</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r537430951-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537430951</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Pretty good!  Pleasantly surprised.</t>
+  </si>
+  <si>
+    <t>I had a huge room located above the office area on the second floor.   It had recently been remodeled and was very nice, clean and comfortable.    The motel was getting a new roof, but it didn't impact me at all.   The only downside was the parking lot is small.  Great value!   A Denny's is just down the street, so I skipped the free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>I had a huge room located above the office area on the second floor.   It had recently been remodeled and was very nice, clean and comfortable.    The motel was getting a new roof, but it didn't impact me at all.   The only downside was the parking lot is small.  Great value!   A Denny's is just down the street, so I skipped the free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r530943192-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530943192</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Flood relief</t>
+  </si>
+  <si>
+    <t>My husband and I were in Houston volunteering with the flood relief. We needed a hotel close to the church we were working with. This hotel was within 4 miles of where we needed to be every morning. Check in was easy. The young man at the desk was very nice. The room we stayed in was clean and very roomy.  Our stay was good.  Breakfast was at 7 so we were gone from the hotel before that time. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I were in Houston volunteering with the flood relief. We needed a hotel close to the church we were working with. This hotel was within 4 miles of where we needed to be every morning. Check in was easy. The young man at the desk was very nice. The room we stayed in was clean and very roomy.  Our stay was good.  Breakfast was at 7 so we were gone from the hotel before that time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r527450605-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527450605</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Ok for the money</t>
+  </si>
+  <si>
+    <t>It's pretty cheep and it it is what it is.  The rooms aren't bad for the money.   The bullet proof glass when you check in is a bit unnerving.  Breakfast... well go to Denny's right next door because this breakfast will leave you wanting something more.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>It's pretty cheep and it it is what it is.  The rooms aren't bad for the money.   The bullet proof glass when you check in is a bit unnerving.  Breakfast... well go to Denny's right next door because this breakfast will leave you wanting something more.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r524964852-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>524964852</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Price discrepancy</t>
+  </si>
+  <si>
+    <t>Online the room was listed at 75, when I booked the room James said due to taxes the cost total is $109. When i got to the hotel the man in front of me paid $75. I asked why the difference and was told I booked online.MoreShow less</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Online the room was listed at 75, when I booked the room James said due to taxes the cost total is $109. When i got to the hotel the man in front of me paid $75. I asked why the difference and was told I booked online.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r496931218-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496931218</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r483449062-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483449062</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Houston trip</t>
+  </si>
+  <si>
+    <t>Old building but very clean inside. If you are an early bird don't plan on breakfast it starts at 7AM. Beds are on the soft side, wish they were a little firmer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Old building but very clean inside. If you are an early bird don't plan on breakfast it starts at 7AM. Beds are on the soft side, wish they were a little firmer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r481916441-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481916441</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>beware of cleaning staff</t>
+  </si>
+  <si>
+    <t>Twice we had people just walk into our room WITHOUT KNOCKING and the Do Not Disturb sign was on the door.  Not sorry for doing it!!!  Filed a complaint with customer care and did not get much satisfaction from them.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Twice we had people just walk into our room WITHOUT KNOCKING and the Do Not Disturb sign was on the door.  Not sorry for doing it!!!  Filed a complaint with customer care and did not get much satisfaction from them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r481356275-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481356275</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r471403572-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471403572</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>pinsi p, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r467680585-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467680585</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Hidden gem</t>
+  </si>
+  <si>
+    <t>I booked this place because of the price, and it turned out to be a really nice room. Very spacious for me and my 2 small kiddos. We love the fridge and microwave. Wish there were more TV options them, but we brought tablets so are night we still had things to do. There Internet is strong and breakfast is yummy. Great job everyone! MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2017</t>
+  </si>
+  <si>
+    <t>I booked this place because of the price, and it turned out to be a really nice room. Very spacious for me and my 2 small kiddos. We love the fridge and microwave. Wish there were more TV options them, but we brought tablets so are night we still had things to do. There Internet is strong and breakfast is yummy. Great job everyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r466663606-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466663606</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Do not stay here!!</t>
+  </si>
+  <si>
+    <t>Inconsiderate staff, they come up with their own polices at the last minute. They don't want your business, it's either their way or the highway! Not family friendly! They want to overcharge you and not honor online prices and policies. Go to la Quinta instead! A lot better, clean and modern rooms at a better price!MoreShow less</t>
+  </si>
+  <si>
+    <t>Pinsi P, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Inconsiderate staff, they come up with their own polices at the last minute. They don't want your business, it's either their way or the highway! Not family friendly! They want to overcharge you and not honor online prices and policies. Go to la Quinta instead! A lot better, clean and modern rooms at a better price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r439048961-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439048961</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>not happy at all</t>
+  </si>
+  <si>
+    <t>Went to check in already had a booking was being charged more money cuz i was there to soon wasnt told bout check in time then there was a couple fighting and screaming right outside my room and owner did nothing then breakfast was not what i expected at allMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Pinsi P, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded November 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2016</t>
+  </si>
+  <si>
+    <t>Went to check in already had a booking was being charged more money cuz i was there to soon wasnt told bout check in time then there was a couple fighting and screaming right outside my room and owner did nothing then breakfast was not what i expected at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r435935725-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435935725</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Have stayed thre since it opened</t>
+  </si>
+  <si>
+    <t>Don't let the bullet proof glass when you check in scare you,  It's only because the family lives on property behind the glass, is the neighborhood upscale no, is it safe, i have never had an issue and i have stayed there a night or tow a month since it opened 8-10 years ago.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Pinsi P, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Don't let the bullet proof glass when you check in scare you,  It's only because the family lives on property behind the glass, is the neighborhood upscale no, is it safe, i have never had an issue and i have stayed there a night or tow a month since it opened 8-10 years ago.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r431272734-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431272734</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>My stay at Super 8 was fantastic! Service is little better than it was last time. My issue this time is the mold in the restroom , need to be treated before someone gets sick! Other than that, our visit there was great , will be back sometime soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pinsi P, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>My stay at Super 8 was fantastic! Service is little better than it was last time. My issue this time is the mold in the restroom , need to be treated before someone gets sick! Other than that, our visit there was great , will be back sometime soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r399491889-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399491889</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>stay time</t>
+  </si>
+  <si>
+    <t>I moved her to take over a business this location was good.  but I have been staying at this hotel since may 1 have not been offered any free nights have spent a lot of money staying here. management seem a little put off not very friendly with guests.Tv went out took 3 days to get replacement  AC started leaking so management used ice container to catch water  they replaced Ac unit after two days then put ice container use to catch water back on counter  not cleaned or replaced. will no recommend this hotel to anyone in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Pinsi P, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>I moved her to take over a business this location was good.  but I have been staying at this hotel since may 1 have not been offered any free nights have spent a lot of money staying here. management seem a little put off not very friendly with guests.Tv went out took 3 days to get replacement  AC started leaking so management used ice container to catch water  they replaced Ac unit after two days then put ice container use to catch water back on counter  not cleaned or replaced. will no recommend this hotel to anyone in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r388481677-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388481677</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r386215792-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386215792</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>I told the guy behind the glass security wall not to have...</t>
+  </si>
+  <si>
+    <t>I told the guy behind the glass security wall not to have my room serviced, because I work in the room and my computer and work related items were out. Well I should have been more specific and just told them to stay out...when I got in the bathroom sink area was a mess. Evidently they came in and changed out the mirror and left  the construction debris all over my bathroom articles. The glass wall gave me the feeling I was staying in a war zone. Not again. Thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r382636264-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382636264</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel and Customer Service!!</t>
+  </si>
+  <si>
+    <t>This is a great hotel to stay at and customer service at this hotel is astonishing!! The room was real clean and they looked freshly remodeled and contemporary modern styled! Checking in to the hotel was an absolute breeze and the the front desk agent was very polite and knowledgable about the area. I would recommend this hotel to anyone, whether it be for business, personal or leisure travel!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel to stay at and customer service at this hotel is astonishing!! The room was real clean and they looked freshly remodeled and contemporary modern styled! Checking in to the hotel was an absolute breeze and the the front desk agent was very polite and knowledgable about the area. I would recommend this hotel to anyone, whether it be for business, personal or leisure travel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r380974291-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380974291</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r380726880-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380726880</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r357595937-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357595937</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>My stay @ Super 8 was great but the front desk clerk wasnt friendly at all,nothing but straight up stinky attitude.Other than that,the stay was great.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r354080050-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354080050</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Pinsi P, General Manager at Super 8 by Wyndham Houston/Brookhollow NW, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r350947451-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350947451</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>"Nice for price"</t>
+  </si>
+  <si>
+    <t>Was impressed how clean grounds/room were upon arrival. Glass between customers and clerk a bit sketch. Room clean. Low water pressure but other than that was satisfied. Clerk behind glass not very friendly. Used points, no issue.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r345835168-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345835168</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Best Super 8 I have stayed in yet!</t>
+  </si>
+  <si>
+    <t>This was the best Super 8 I have stayed in yet. Updated, clean, and nice! Breakfast was not the best though, milk is in gallon versus individual cartons! The lobby smells kinda weird.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r342846003-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342846003</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r340710813-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340710813</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r321691923-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321691923</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great property. ..Super satisfied customers! !! </t>
+  </si>
+  <si>
+    <t>Enjoy this property it is cleaned, service is good, WiFi connection is great. Plenty of towels, no trash in front doors,  All the channels on TV works. Breakfast is great!!! It is safe to wash clothes, maps for directions is cleared.  I will definitely be back to Super 8!!! Luv my city!!!!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r316458852-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316458852</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r300453177-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300453177</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Really  Super</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventhough the receptionists are not as warm as the Texas weather as this time of the year, everything else was super. Nice bedroom, cleam and well furnished, confortamble bed, nice a/c and yet the room smeels good. A couple of options as for restaurant on a walking distance and a very quiet place. I would definitely return to this hotel. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r280710522-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280710522</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r280348963-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280348963</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quite small motel good value for money  in Houston </t>
+  </si>
+  <si>
+    <t>This is a quite small super 8. Friendly staff. Our room was very clean and large enough.  Nice small swimming pool. Good typical super  8 breakfast. Easy location when travelling in direction of Austin via US290.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r279080230-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279080230</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r273653331-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273653331</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Shady area and customers on this week end.Staff was not...</t>
+  </si>
+  <si>
+    <t>Shady area and customers on this week end.Staff was not very welcoming .The fact there is a protection window between the receptionist and the customer doesn't give a good feeling !Room was clean and Breakfast just OK .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r271695802-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271695802</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The guy at check in was very nice. The room looked great and very comfortable.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r263158744-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263158744</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r253586686-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253586686</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r253439541-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253439541</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r252303018-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252303018</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Impressed!</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at Super 8. The room was clean and spacious, and I definitely appreciated the free Wi-Fi.  Breakfast was decent, too.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r242182519-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242182519</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Terrible staff</t>
+  </si>
+  <si>
+    <t>We arrived to the hotel at night, the man who was in reception wasn´t nice, we asked for an extra bed, and he didn´t want to put a bed in our room, so we had to pay another room. And he didn´t want to give us a non smoking room.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r239388167-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239388167</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>It was ok..I locked myself out of my room and couldn't find...</t>
+  </si>
+  <si>
+    <t>It was ok..I locked myself out of my room and couldn't find anyone in the office,  no one answered the phone</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r235539149-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235539149</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Not as clean as most Super 8s</t>
+  </si>
+  <si>
+    <t>This Super 8 is not as clean as others we have stayed in. The continental breakfast was pretty good.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r216947362-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216947362</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Customer Service was horrible!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would not stay at this Super 8 again!!!! You felt like you was in a prison hall. Asked for towels and handed them through a locked little gate window. To pay or speak to anyone it was through a glass window! Parking was horrible!!!! Water leaked so bad out of spout that it would soak the floor. </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r216778873-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216778873</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r216501845-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216501845</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r204846102-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204846102</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r202752494-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202752494</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Not as advertised</t>
+  </si>
+  <si>
+    <t>We were told on the phone by the Wyndham rewards person that all of the rooms had inside doors - they were all facing outside.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r201860311-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201860311</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Average Place but not friendly young man at counter</t>
+  </si>
+  <si>
+    <t>Bullet proof glass makes the front desk more secure than most banks but tells me no place to stay. If they get robbed that much. Doesn't help to communicate with the English as second language staff who get rude when you can't hear them through the thick glass and their thick Indian/Pakistan? accent. Breakfast and room were average but clean. There is a Chinese Buffet next door but the staff wouldn't comment on it so I opted for a chain deli called Jayson's which is a block away and very good. I picked this motel because the price was right. I would not go back unless it was under new management.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bullet proof glass makes the front desk more secure than most banks but tells me no place to stay. If they get robbed that much. Doesn't help to communicate with the English as second language staff who get rude when you can't hear them through the thick glass and their thick Indian/Pakistan? accent. Breakfast and room were average but clean. There is a Chinese Buffet next door but the staff wouldn't comment on it so I opted for a chain deli called Jayson's which is a block away and very good. I picked this motel because the price was right. I would not go back unless it was under new management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r196627311-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196627311</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>A poor Super 8 property</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for 1 night. My choice was motivated by its location west of Houston, conveniently located for my next day travel to San Antonio.Except for the location, I was very disappointed by this property. The staff was frawny and not welcoming at all. The rooms are a little bit run down. The breakfast item choice is very poor. I travel a lot across the USA, and frequently sleep in Super 8 motels because of my Wyndham loyalty program. I attest this property is below the average standard of the brand by a wide margin.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r193991043-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193991043</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel every time we come to Houston...</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel every time we come to Houston (Normally twice a year.  Every time the staff has been excellent and the rooms were ready when we arrived. We will continue to use this hotel in the future.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r193227229-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193227229</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>STAY AWAY</t>
+  </si>
+  <si>
+    <t>By far one of the WORST rooms I've had the misfortune of staying in. I booked a NON SMOKING ACCESSIBLE room online. I checked in went to my room (actually a large ash tray located on the second floor). I immediately went back to the office to inquire about another room. The attendant laughed and said ALL rooms are smoking and there were no more accessible rooms. I'm not so handicapped that I cant make it up the stairs but parking was another thing. VERY limited. Two handicapped spots, both taken by vehicles with no placards. I had to park in the back of the parking lot quite a ways away from my second floor ash tray room. I left and went to a local store to buy some Febreze. I sprayed the entire quart bottle about the room then left for dinner. Having only been in the room for approx. 30 mins my clothing was saturated with smoke smell. The next day, my colleagues I had to interact with at a business meeting made mention about the horrible smell my clothing carried.
+The TV lineup was horrible as well. Very limited channel selection. Several latin channels and a couple of hindi channels as well. Nothing so normal such as A&amp;E, history channel etc.
+I knew the next morning I had def hit the wrong property when while standing in front of the bathroom mirror, I looked up and saw...By far one of the WORST rooms I've had the misfortune of staying in. I booked a NON SMOKING ACCESSIBLE room online. I checked in went to my room (actually a large ash tray located on the second floor). I immediately went back to the office to inquire about another room. The attendant laughed and said ALL rooms are smoking and there were no more accessible rooms. I'm not so handicapped that I cant make it up the stairs but parking was another thing. VERY limited. Two handicapped spots, both taken by vehicles with no placards. I had to park in the back of the parking lot quite a ways away from my second floor ash tray room. I left and went to a local store to buy some Febreze. I sprayed the entire quart bottle about the room then left for dinner. Having only been in the room for approx. 30 mins my clothing was saturated with smoke smell. The next day, my colleagues I had to interact with at a business meeting made mention about the horrible smell my clothing carried.The TV lineup was horrible as well. Very limited channel selection. Several latin channels and a couple of hindi channels as well. Nothing so normal such as A&amp;E, history channel etc.I knew the next morning I had def hit the wrong property when while standing in front of the bathroom mirror, I looked up and saw a syringe in the light fixture above me.And again when going to the desk, I was laughed off by the attendant that could barely speak English. So if you are looking for a room to smoke and do drugs in and deal with a manager that cant speak English then this is the property for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>By far one of the WORST rooms I've had the misfortune of staying in. I booked a NON SMOKING ACCESSIBLE room online. I checked in went to my room (actually a large ash tray located on the second floor). I immediately went back to the office to inquire about another room. The attendant laughed and said ALL rooms are smoking and there were no more accessible rooms. I'm not so handicapped that I cant make it up the stairs but parking was another thing. VERY limited. Two handicapped spots, both taken by vehicles with no placards. I had to park in the back of the parking lot quite a ways away from my second floor ash tray room. I left and went to a local store to buy some Febreze. I sprayed the entire quart bottle about the room then left for dinner. Having only been in the room for approx. 30 mins my clothing was saturated with smoke smell. The next day, my colleagues I had to interact with at a business meeting made mention about the horrible smell my clothing carried.
+The TV lineup was horrible as well. Very limited channel selection. Several latin channels and a couple of hindi channels as well. Nothing so normal such as A&amp;E, history channel etc.
+I knew the next morning I had def hit the wrong property when while standing in front of the bathroom mirror, I looked up and saw...By far one of the WORST rooms I've had the misfortune of staying in. I booked a NON SMOKING ACCESSIBLE room online. I checked in went to my room (actually a large ash tray located on the second floor). I immediately went back to the office to inquire about another room. The attendant laughed and said ALL rooms are smoking and there were no more accessible rooms. I'm not so handicapped that I cant make it up the stairs but parking was another thing. VERY limited. Two handicapped spots, both taken by vehicles with no placards. I had to park in the back of the parking lot quite a ways away from my second floor ash tray room. I left and went to a local store to buy some Febreze. I sprayed the entire quart bottle about the room then left for dinner. Having only been in the room for approx. 30 mins my clothing was saturated with smoke smell. The next day, my colleagues I had to interact with at a business meeting made mention about the horrible smell my clothing carried.The TV lineup was horrible as well. Very limited channel selection. Several latin channels and a couple of hindi channels as well. Nothing so normal such as A&amp;E, history channel etc.I knew the next morning I had def hit the wrong property when while standing in front of the bathroom mirror, I looked up and saw a syringe in the light fixture above me.And again when going to the desk, I was laughed off by the attendant that could barely speak English. So if you are looking for a room to smoke and do drugs in and deal with a manager that cant speak English then this is the property for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r188894502-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188894502</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r188470695-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188470695</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r186290922-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186290922</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r184294218-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184294218</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Very Good Choice for Houston</t>
+  </si>
+  <si>
+    <t>I liked its location right off of the U.S. Hwy. 290 Expressway, the price ($49.00+tax), the neat &amp; clean appearance, the very well-maintained room, and the good, and rather extensive, breakfast. There was nothing I disliked about this Super 8 property, and I would recommend it and stay there, again. RJT</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r181979388-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181979388</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r181297907-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181297907</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r175615584-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175615584</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Never Again!!</t>
+  </si>
+  <si>
+    <t>The front desk workers were rude. Toilet seat broke, shower head mold, mildew, tub filthy, last guest clothes hanging on back of the bathroom door. The breakfast was okay and the location close to intersection. However everything on that side close early. Also the pool was not available to us during our two day stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r174530151-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174530151</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r166452397-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166452397</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r162368724-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162368724</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Marble Tops</t>
+  </si>
+  <si>
+    <t>Driving solo, cross-country (West-East) car trip.  Normally stop in Houston.  First time stay at this Super 8 located on 34th Street.  Used hotel points to stay there.  Requested non-smoking.  Was assigned a king, non-smoking room with microwave and small fridge.  Sink area has marble tops as well as the shower walls.  Interesting.  T.V. decades old but functioned fine.  Bed clean and comfortable.  The young lady at the front desk was helpful and accommodating when I asked for directions to the nearest post office.   Wifi okay.  Next door to a Japanese Buffet restaurant.  Served a breakfast but did not partake.  Pool closed.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r162218632-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162218632</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r160618437-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160618437</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Stayed at for this hotel only because local convention was...</t>
+  </si>
+  <si>
+    <t>Stayed at for this hotel only because local convention was going on and there was limited options.  For the price it was a descent place.  Just not my cup of tea for appearance and area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r156189050-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156189050</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r155585572-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155585572</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Our room smelled and the pool and hot tub were closed. the...</t>
+  </si>
+  <si>
+    <t>Our room smelled and the pool and hot tub were closed. the front desk could not give any suggestions about nearby restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r155283724-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155283724</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Acceptable for the price paid relative to other 1 star hotels in Houston</t>
+  </si>
+  <si>
+    <t>Yes it's I'm a poor area, as as are many other 1 star hotels In Houston.  and yes it's not new.  But The bed and pillows were comfy and it looked like new sheets and towels (bed spread was old and had hole in it).  The lady at the front desk told me they freshly scrubbed down my room, and I believe it as it looked clean.   I checked for bed bugs and didn't see any evidence of them and experienced no problems overnight.  The mattress looked new too.  Lady at front desk was nice.  Breakfast had self make waffles, packaged sweet buns, cereal, toast, packaged oatmeal...better than other budget hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Yes it's I'm a poor area, as as are many other 1 star hotels In Houston.  and yes it's not new.  But The bed and pillows were comfy and it looked like new sheets and towels (bed spread was old and had hole in it).  The lady at the front desk told me they freshly scrubbed down my room, and I believe it as it looked clean.   I checked for bed bugs and didn't see any evidence of them and experienced no problems overnight.  The mattress looked new too.  Lady at front desk was nice.  Breakfast had self make waffles, packaged sweet buns, cereal, toast, packaged oatmeal...better than other budget hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r154385501-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154385501</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r153963410-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153963410</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r153331643-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153331643</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r150882231-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150882231</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r149530030-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149530030</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r148113725-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148113725</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r145422194-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145422194</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r144345701-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144345701</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r143855067-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143855067</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r139719036-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139719036</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where to start. Hair in the sink, sticky carpet, thin pillows, broken security lock on door, broken faucet handle in shower, small number of channels on tv. They did have truck parking and the clerk was pleasent. The hotel needs updating though. It's getting worn out. </t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r136345136-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136345136</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Liking It</t>
+  </si>
+  <si>
+    <t>Sitting in the room as I write this review and like it alot. With the previous nights horrible stay in Houston at another INN. I am very relieved to be staying here. The rooms are clean and the location is quite and I am sure to get a good nights sleep. The pool is out of commission which is a bummer and the parking is very tight. Other than that I am very happy with the Motel stay and the price. Glad to stay here on the last night of my Honeymoon.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r131965421-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131965421</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Good basic</t>
+  </si>
+  <si>
+    <t>Clean room, well supplied. The pillows were too soft and not very many TV channels. Several restaurants close by, but avoid the Hibachi Grill next door. Nothing special, but a good basic room for a reasonable price.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r102800548-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102800548</t>
+  </si>
+  <si>
+    <t>04/04/2011</t>
+  </si>
+  <si>
+    <t>THIS WAS A GREAT PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>I would stay here again  breakfast was good lots of variety  breakfast area was clean as well A.Room was verry clean WAS A PLEASURE TO BE THERE AT A BUDGET PRICE  VERRY EASY TO FIND</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r61082002-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>61082002</t>
+  </si>
+  <si>
+    <t>04/12/2010</t>
+  </si>
+  <si>
+    <t>No frills room ok, but wifi servive spotty &amp; breakfast bad</t>
+  </si>
+  <si>
+    <t>I organized my review into key points so that you can just to the topic you are interested in.
+Getting there &amp; location:  It is very easy to get to the hotel and to get around the area.  It is conveniently located near highways and on main roads loaded with restaurants and stores. I wouldn't try to jog in this area.  That was a major disappointment for me because I enjoy jogging outside and hate the treadmill.
+Parking:  There isn't enough parking at this hotel.  The hotel is two stories and everyone is squeezed into one tiny parking lot.   The overflow parking lot was behind the building.  The area was fenced, but I had to wonder how safe our car was in this area.  We parked there and nothing happened to our car, but we also removed everything of value from the vehicle and didn't leave anything of value (CDs) in plan sight.
+Cost: The price was right at $45 for a king bed, cable and wireless for one night.
+Pool:  The pool was outdoor and looked filthy.  I'm glad I wasn't counting on it for exercise!
+Other Amenities: This truly was a no frills hotel.  The wifi was spotty and hardly strong enough to even connect to on the second day.  It took thirty minutes just  to connect to it the first time, and I am no wifi connect novice!  I couldn't keep the connection long enough to read...I organized my review into key points so that you can just to the topic you are interested in.Getting there &amp; location:  It is very easy to get to the hotel and to get around the area.  It is conveniently located near highways and on main roads loaded with restaurants and stores. I wouldn't try to jog in this area.  That was a major disappointment for me because I enjoy jogging outside and hate the treadmill.Parking:  There isn't enough parking at this hotel.  The hotel is two stories and everyone is squeezed into one tiny parking lot.   The overflow parking lot was behind the building.  The area was fenced, but I had to wonder how safe our car was in this area.  We parked there and nothing happened to our car, but we also removed everything of value from the vehicle and didn't leave anything of value (CDs) in plan sight.Cost: The price was right at $45 for a king bed, cable and wireless for one night.Pool:  The pool was outdoor and looked filthy.  I'm glad I wasn't counting on it for exercise!Other Amenities: This truly was a no frills hotel.  The wifi was spotty and hardly strong enough to even connect to on the second day.  It took thirty minutes just  to connect to it the first time, and I am no wifi connect novice!  I couldn't keep the connection long enough to read a client email and respond immediately.  It was incredibly frustrating as I still had to work while on the trip and couldn't get a reliable signal.  I couldn't even pick up a signal while reclining on the bed.  How frustrating!  The bathroom had two tiny soaps and one bottle of shampoo, so you should probably bring your own or be prepared to ask for more if traveling with children, as well.  There were only enough regular (caffeinated) coffee grounds for one cup of coffee even though it was a two-person room.  There was a hair drier, but I used my own.  Noise: For the most part, the area was quiet.  A car alarm went off once, but someone immediately turned it off.  As the parking lot is so tiny and right in front of the rooms, people can't really avoid parking lot noise, but it really isn't bad.  I slept like a rock.Free Breakfast: This was pitiful.  The breakfast consisted of four cereals and prepackaged baked goods, such as Little Debbie brownies and sweet rolls.  There was a tray with white bread stacked on it and packages of flavored oatmeal.  The only highlight was the additional hot coffee as the rooms lacked enough for both of us to have a cup.  There was as apple juice machine, too.  We went to Denny's and had Gland Slams instead.Overall: Although the price was right for this room, I wouldn't return. I have visited plenty of no frills hotels over the last ten years and never experienced one quite so stingy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>I organized my review into key points so that you can just to the topic you are interested in.
+Getting there &amp; location:  It is very easy to get to the hotel and to get around the area.  It is conveniently located near highways and on main roads loaded with restaurants and stores. I wouldn't try to jog in this area.  That was a major disappointment for me because I enjoy jogging outside and hate the treadmill.
+Parking:  There isn't enough parking at this hotel.  The hotel is two stories and everyone is squeezed into one tiny parking lot.   The overflow parking lot was behind the building.  The area was fenced, but I had to wonder how safe our car was in this area.  We parked there and nothing happened to our car, but we also removed everything of value from the vehicle and didn't leave anything of value (CDs) in plan sight.
+Cost: The price was right at $45 for a king bed, cable and wireless for one night.
+Pool:  The pool was outdoor and looked filthy.  I'm glad I wasn't counting on it for exercise!
+Other Amenities: This truly was a no frills hotel.  The wifi was spotty and hardly strong enough to even connect to on the second day.  It took thirty minutes just  to connect to it the first time, and I am no wifi connect novice!  I couldn't keep the connection long enough to read...I organized my review into key points so that you can just to the topic you are interested in.Getting there &amp; location:  It is very easy to get to the hotel and to get around the area.  It is conveniently located near highways and on main roads loaded with restaurants and stores. I wouldn't try to jog in this area.  That was a major disappointment for me because I enjoy jogging outside and hate the treadmill.Parking:  There isn't enough parking at this hotel.  The hotel is two stories and everyone is squeezed into one tiny parking lot.   The overflow parking lot was behind the building.  The area was fenced, but I had to wonder how safe our car was in this area.  We parked there and nothing happened to our car, but we also removed everything of value from the vehicle and didn't leave anything of value (CDs) in plan sight.Cost: The price was right at $45 for a king bed, cable and wireless for one night.Pool:  The pool was outdoor and looked filthy.  I'm glad I wasn't counting on it for exercise!Other Amenities: This truly was a no frills hotel.  The wifi was spotty and hardly strong enough to even connect to on the second day.  It took thirty minutes just  to connect to it the first time, and I am no wifi connect novice!  I couldn't keep the connection long enough to read a client email and respond immediately.  It was incredibly frustrating as I still had to work while on the trip and couldn't get a reliable signal.  I couldn't even pick up a signal while reclining on the bed.  How frustrating!  The bathroom had two tiny soaps and one bottle of shampoo, so you should probably bring your own or be prepared to ask for more if traveling with children, as well.  There were only enough regular (caffeinated) coffee grounds for one cup of coffee even though it was a two-person room.  There was a hair drier, but I used my own.  Noise: For the most part, the area was quiet.  A car alarm went off once, but someone immediately turned it off.  As the parking lot is so tiny and right in front of the rooms, people can't really avoid parking lot noise, but it really isn't bad.  I slept like a rock.Free Breakfast: This was pitiful.  The breakfast consisted of four cereals and prepackaged baked goods, such as Little Debbie brownies and sweet rolls.  There was a tray with white bread stacked on it and packages of flavored oatmeal.  The only highlight was the additional hot coffee as the rooms lacked enough for both of us to have a cup.  There was as apple juice machine, too.  We went to Denny's and had Gland Slams instead.Overall: Although the price was right for this room, I wouldn't return. I have visited plenty of no frills hotels over the last ten years and never experienced one quite so stingy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r50582521-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>50582521</t>
+  </si>
+  <si>
+    <t>12/03/2009</t>
+  </si>
+  <si>
+    <t>Clean, updated, quiet</t>
+  </si>
+  <si>
+    <t>Was surprised to find a nicely tiled bathroom, clean carpet, freshly painted walls, and a desk, sofa, fridge, microwave, cable tv and a clean breakfast area (which was basic with juices, grits, oatmeal, cereal, and muffins). Decent price, safe area, and no problems.  Will return if needed.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r30223214-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>30223214</t>
+  </si>
+  <si>
+    <t>05/18/2009</t>
+  </si>
+  <si>
+    <t>Room was ok, could have been better</t>
+  </si>
+  <si>
+    <t>The price for the room was decent.  We stayed here for one night.  We notieced the smoke detector was removed by somebody.  Also, the room had a funny smell when the heater was on.  We had turned the heater on because somebody left the A\C running and the room was cold.  The toilet would keep running, too.  Overall, it was decent, but I've had better at Super 8.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r24575338-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24575338</t>
+  </si>
+  <si>
+    <t>02/14/2009</t>
+  </si>
+  <si>
+    <t>Overall, a pleasant, one-night stay.</t>
+  </si>
+  <si>
+    <t>Plus:- Micro-Fridge- Clean rooms- Close to highway- Good price (around $50)- QuietMinus:- Staff descent, but not outgoing</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r23141846-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>23141846</t>
+  </si>
+  <si>
+    <t>12/31/2008</t>
+  </si>
+  <si>
+    <t>Great Super 8!</t>
+  </si>
+  <si>
+    <t>All you need in a city hotel Super 8 got it!This hotel is well located, easy to get to, wel maintained, huge parking lot, decent Free Breakfast, good wi-fi, huge rooms and everything is very clean.I recommend it for people going in a shopping spree or getting into a sporting event.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r8378333-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8378333</t>
+  </si>
+  <si>
+    <t>08/08/2007</t>
+  </si>
+  <si>
+    <t>Fantastic Super 8</t>
+  </si>
+  <si>
+    <t>We needed a nice but fairly inexpensive place to stay in Houston for a few nights, and picked this motel.  What a pleasant surprise!  The motel had been recently renovated, and looked fantastic.  The room was quite large, very clean, and well-appointed., with room for a loveseat and a work desk.  The continental breakfast was pretty good, with breakfast cereals, juices, bagels, and muffins.  Location-wise, the site is a little north of I-10 and right off 290, just a block from the highway--far enough away to be quiet.  The staff was friendly and helpful.  Internet access was via wire, so I was glad I had an ethernet cable with me.  Overall, it was nearly as nice as some Hampton Inns I've stayed at, for about a third of the price.  A very pleasant surprise.  If you need to be in the northwest Houston area, I highly recommend this Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>We needed a nice but fairly inexpensive place to stay in Houston for a few nights, and picked this motel.  What a pleasant surprise!  The motel had been recently renovated, and looked fantastic.  The room was quite large, very clean, and well-appointed., with room for a loveseat and a work desk.  The continental breakfast was pretty good, with breakfast cereals, juices, bagels, and muffins.  Location-wise, the site is a little north of I-10 and right off 290, just a block from the highway--far enough away to be quiet.  The staff was friendly and helpful.  Internet access was via wire, so I was glad I had an ethernet cable with me.  Overall, it was nearly as nice as some Hampton Inns I've stayed at, for about a third of the price.  A very pleasant surprise.  If you need to be in the northwest Houston area, I highly recommend this Super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r7956357-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7956357</t>
+  </si>
+  <si>
+    <t>06/20/2007</t>
+  </si>
+  <si>
+    <t>Clean, basic motel</t>
+  </si>
+  <si>
+    <t>Stayed one night in June 07. Nothing spectacular. Front desk staff was not too friendly. Rooms had frig and microwave. Just a basic motel.....no frills. Had a good night's sleep. Parking area is not big enough....one way in, one way out. Price was right.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d240483-r6534649-Super_8_by_Wyndham_Houston_Brookhollow_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6534649</t>
+  </si>
+  <si>
+    <t>12/31/2006</t>
+  </si>
+  <si>
+    <t>Decent Hotel, Nothing Special</t>
+  </si>
+  <si>
+    <t>Stayed at the Super 8 Houston Brookhollow for 1 night in December.  There are many positives--This is a clean hotel, with large rooms, and centrally located to shops and restaurants.  Everything felt new and clean and the bathroom was immaculate.  My room was very clean and the windows opened (my biggest request is to have the windows open).  They gave me a nice private room on the first floor, which is always my preference.  Also, the price was right because I stayed for free using my TripRewards points.  There's plenty of free parking and the neighborhood is very safe and nice (it's very suburban).  There was an internet station to use in the breakfast room but someone was using it in the morning so I couldn't give it a try.  However, there were some minor downsides.  The woman at check-in was not very friendly and barely said hello.  She seemed grumpy and uninterested in positive customer service.  (To their credit, the man who checked me in was very polite and friendly.)  The pool was uninviting, right in the middle of the parking lot with no atmosphere.  I can't imagine anyone would ever swim there.  The continental breakfast was minimal and unappetizing.  I totally skipped out because it was very bare.  The location is very far from downtown, so don't stay here if you want to be in the heart of Houston.  It's a little hard to find the first time...Stayed at the Super 8 Houston Brookhollow for 1 night in December.  There are many positives--This is a clean hotel, with large rooms, and centrally located to shops and restaurants.  Everything felt new and clean and the bathroom was immaculate.  My room was very clean and the windows opened (my biggest request is to have the windows open).  They gave me a nice private room on the first floor, which is always my preference.  Also, the price was right because I stayed for free using my TripRewards points.  There's plenty of free parking and the neighborhood is very safe and nice (it's very suburban).  There was an internet station to use in the breakfast room but someone was using it in the morning so I couldn't give it a try.  However, there were some minor downsides.  The woman at check-in was not very friendly and barely said hello.  She seemed grumpy and uninterested in positive customer service.  (To their credit, the man who checked me in was very polite and friendly.)  The pool was uninviting, right in the middle of the parking lot with no atmosphere.  I can't imagine anyone would ever swim there.  The continental breakfast was minimal and unappetizing.  I totally skipped out because it was very bare.  The location is very far from downtown, so don't stay here if you want to be in the heart of Houston.  It's a little hard to find the first time because Houston is all freeways and one way streets.  But once you get the hang of the roads, it's not too bad.  Overall, it's nice for a quick stay if you just want a clean hotel for a stopover.  Please email me if you have any questions, JenPerna@aol.com.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>Stayed at the Super 8 Houston Brookhollow for 1 night in December.  There are many positives--This is a clean hotel, with large rooms, and centrally located to shops and restaurants.  Everything felt new and clean and the bathroom was immaculate.  My room was very clean and the windows opened (my biggest request is to have the windows open).  They gave me a nice private room on the first floor, which is always my preference.  Also, the price was right because I stayed for free using my TripRewards points.  There's plenty of free parking and the neighborhood is very safe and nice (it's very suburban).  There was an internet station to use in the breakfast room but someone was using it in the morning so I couldn't give it a try.  However, there were some minor downsides.  The woman at check-in was not very friendly and barely said hello.  She seemed grumpy and uninterested in positive customer service.  (To their credit, the man who checked me in was very polite and friendly.)  The pool was uninviting, right in the middle of the parking lot with no atmosphere.  I can't imagine anyone would ever swim there.  The continental breakfast was minimal and unappetizing.  I totally skipped out because it was very bare.  The location is very far from downtown, so don't stay here if you want to be in the heart of Houston.  It's a little hard to find the first time...Stayed at the Super 8 Houston Brookhollow for 1 night in December.  There are many positives--This is a clean hotel, with large rooms, and centrally located to shops and restaurants.  Everything felt new and clean and the bathroom was immaculate.  My room was very clean and the windows opened (my biggest request is to have the windows open).  They gave me a nice private room on the first floor, which is always my preference.  Also, the price was right because I stayed for free using my TripRewards points.  There's plenty of free parking and the neighborhood is very safe and nice (it's very suburban).  There was an internet station to use in the breakfast room but someone was using it in the morning so I couldn't give it a try.  However, there were some minor downsides.  The woman at check-in was not very friendly and barely said hello.  She seemed grumpy and uninterested in positive customer service.  (To their credit, the man who checked me in was very polite and friendly.)  The pool was uninviting, right in the middle of the parking lot with no atmosphere.  I can't imagine anyone would ever swim there.  The continental breakfast was minimal and unappetizing.  I totally skipped out because it was very bare.  The location is very far from downtown, so don't stay here if you want to be in the heart of Houston.  It's a little hard to find the first time because Houston is all freeways and one way streets.  But once you get the hang of the roads, it's not too bad.  Overall, it's nice for a quick stay if you just want a clean hotel for a stopover.  Please email me if you have any questions, JenPerna@aol.com.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2043,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2075,5905 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>198</v>
+      </c>
+      <c r="X23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>198</v>
+      </c>
+      <c r="X24" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>198</v>
+      </c>
+      <c r="X25" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>244</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>266</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>275</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>270</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>279</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>281</v>
+      </c>
+      <c r="J38" t="s">
+        <v>282</v>
+      </c>
+      <c r="K38" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>270</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>270</v>
+      </c>
+      <c r="O39" t="s">
+        <v>141</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>295</v>
+      </c>
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>302</v>
+      </c>
+      <c r="J43" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s">
+        <v>305</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>306</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
+        <v>311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>312</v>
+      </c>
+      <c r="O44" t="s">
+        <v>141</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s">
+        <v>317</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>312</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" t="s">
+        <v>327</v>
+      </c>
+      <c r="L47" t="s">
+        <v>328</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>329</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>326</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>329</v>
+      </c>
+      <c r="O48" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>333</v>
+      </c>
+      <c r="J49" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>329</v>
+      </c>
+      <c r="O49" t="s">
+        <v>117</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>60</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>338</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>339</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s">
+        <v>343</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>345</v>
+      </c>
+      <c r="J52" t="s">
+        <v>346</v>
+      </c>
+      <c r="K52" t="s">
+        <v>347</v>
+      </c>
+      <c r="L52" t="s">
+        <v>348</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>338</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>351</v>
+      </c>
+      <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s">
+        <v>353</v>
+      </c>
+      <c r="L53" t="s">
+        <v>354</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>355</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>356</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54" t="s">
+        <v>358</v>
+      </c>
+      <c r="K54" t="s">
+        <v>359</v>
+      </c>
+      <c r="L54" t="s">
+        <v>360</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>361</v>
+      </c>
+      <c r="O54" t="s">
+        <v>141</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>367</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>370</v>
+      </c>
+      <c r="J56" t="s">
+        <v>371</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>373</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>374</v>
+      </c>
+      <c r="J57" t="s">
+        <v>375</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>60</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>372</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>379</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>380</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" t="s">
+        <v>382</v>
+      </c>
+      <c r="K59" t="s">
+        <v>383</v>
+      </c>
+      <c r="L59" t="s">
+        <v>384</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>379</v>
+      </c>
+      <c r="O59" t="s">
+        <v>75</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>387</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>388</v>
+      </c>
+      <c r="O60" t="s">
+        <v>141</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>388</v>
+      </c>
+      <c r="O61" t="s">
+        <v>141</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>393</v>
+      </c>
+      <c r="J62" t="s">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s">
+        <v>396</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>398</v>
+      </c>
+      <c r="J63" t="s">
+        <v>399</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>400</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>401</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>402</v>
+      </c>
+      <c r="J64" t="s">
+        <v>403</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>404</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>405</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>406</v>
+      </c>
+      <c r="J65" t="s">
+        <v>407</v>
+      </c>
+      <c r="K65" t="s">
+        <v>408</v>
+      </c>
+      <c r="L65" t="s">
+        <v>409</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>410</v>
+      </c>
+      <c r="O65" t="s">
+        <v>75</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>411</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>412</v>
+      </c>
+      <c r="J66" t="s">
+        <v>413</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>410</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>414</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>415</v>
+      </c>
+      <c r="J67" t="s">
+        <v>416</v>
+      </c>
+      <c r="K67" t="s">
+        <v>417</v>
+      </c>
+      <c r="L67" t="s">
+        <v>418</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>410</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>419</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>420</v>
+      </c>
+      <c r="J68" t="s">
+        <v>421</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>422</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>423</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>424</v>
+      </c>
+      <c r="J69" t="s">
+        <v>425</v>
+      </c>
+      <c r="K69" t="s">
+        <v>426</v>
+      </c>
+      <c r="L69" t="s">
+        <v>427</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>422</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>428</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>429</v>
+      </c>
+      <c r="J70" t="s">
+        <v>430</v>
+      </c>
+      <c r="K70" t="s">
+        <v>431</v>
+      </c>
+      <c r="L70" t="s">
+        <v>432</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>422</v>
+      </c>
+      <c r="O70" t="s">
+        <v>75</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>435</v>
+      </c>
+      <c r="J71" t="s">
+        <v>436</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>422</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>437</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>438</v>
+      </c>
+      <c r="J72" t="s">
+        <v>439</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>422</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>440</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>441</v>
+      </c>
+      <c r="J73" t="s">
+        <v>442</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>443</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>444</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>445</v>
+      </c>
+      <c r="J74" t="s">
+        <v>446</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>447</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>448</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>449</v>
+      </c>
+      <c r="J75" t="s">
+        <v>450</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>447</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>451</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>452</v>
+      </c>
+      <c r="J76" t="s">
+        <v>453</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>454</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>455</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>456</v>
+      </c>
+      <c r="J77" t="s">
+        <v>457</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>458</v>
+      </c>
+      <c r="O77" t="s">
+        <v>75</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>459</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>460</v>
+      </c>
+      <c r="J78" t="s">
+        <v>461</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>462</v>
+      </c>
+      <c r="O78" t="s">
+        <v>117</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>463</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>464</v>
+      </c>
+      <c r="J79" t="s">
+        <v>465</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>462</v>
+      </c>
+      <c r="O79" t="s">
+        <v>117</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>466</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>467</v>
+      </c>
+      <c r="J80" t="s">
+        <v>468</v>
+      </c>
+      <c r="K80" t="s">
+        <v>469</v>
+      </c>
+      <c r="L80" t="s">
+        <v>470</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>472</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>473</v>
+      </c>
+      <c r="J81" t="s">
+        <v>474</v>
+      </c>
+      <c r="K81" t="s">
+        <v>475</v>
+      </c>
+      <c r="L81" t="s">
+        <v>476</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>477</v>
+      </c>
+      <c r="O81" t="s">
+        <v>117</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>478</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>479</v>
+      </c>
+      <c r="J82" t="s">
+        <v>480</v>
+      </c>
+      <c r="K82" t="s">
+        <v>481</v>
+      </c>
+      <c r="L82" t="s">
+        <v>482</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>483</v>
+      </c>
+      <c r="O82" t="s">
+        <v>75</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>484</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>485</v>
+      </c>
+      <c r="J83" t="s">
+        <v>486</v>
+      </c>
+      <c r="K83" t="s">
+        <v>487</v>
+      </c>
+      <c r="L83" t="s">
+        <v>488</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>489</v>
+      </c>
+      <c r="O83" t="s">
+        <v>117</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>490</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>491</v>
+      </c>
+      <c r="J84" t="s">
+        <v>492</v>
+      </c>
+      <c r="K84" t="s">
+        <v>493</v>
+      </c>
+      <c r="L84" t="s">
+        <v>494</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>495</v>
+      </c>
+      <c r="O84" t="s">
+        <v>117</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>497</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>498</v>
+      </c>
+      <c r="J85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K85" t="s">
+        <v>500</v>
+      </c>
+      <c r="L85" t="s">
+        <v>501</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>502</v>
+      </c>
+      <c r="O85" t="s">
+        <v>117</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>503</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>504</v>
+      </c>
+      <c r="J86" t="s">
+        <v>505</v>
+      </c>
+      <c r="K86" t="s">
+        <v>506</v>
+      </c>
+      <c r="L86" t="s">
+        <v>507</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>508</v>
+      </c>
+      <c r="O86" t="s">
+        <v>117</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>509</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>510</v>
+      </c>
+      <c r="J87" t="s">
+        <v>511</v>
+      </c>
+      <c r="K87" t="s">
+        <v>512</v>
+      </c>
+      <c r="L87" t="s">
+        <v>513</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>514</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>515</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>516</v>
+      </c>
+      <c r="J88" t="s">
+        <v>517</v>
+      </c>
+      <c r="K88" t="s">
+        <v>518</v>
+      </c>
+      <c r="L88" t="s">
+        <v>519</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>520</v>
+      </c>
+      <c r="O88" t="s">
+        <v>141</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>521</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>522</v>
+      </c>
+      <c r="J89" t="s">
+        <v>523</v>
+      </c>
+      <c r="K89" t="s">
+        <v>524</v>
+      </c>
+      <c r="L89" t="s">
+        <v>525</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>526</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>528</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>529</v>
+      </c>
+      <c r="J90" t="s">
+        <v>530</v>
+      </c>
+      <c r="K90" t="s">
+        <v>531</v>
+      </c>
+      <c r="L90" t="s">
+        <v>532</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>533</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>534</v>
+      </c>
+      <c r="J91" t="s">
+        <v>535</v>
+      </c>
+      <c r="K91" t="s">
+        <v>536</v>
+      </c>
+      <c r="L91" t="s">
+        <v>537</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>538</v>
+      </c>
+      <c r="O91" t="s">
+        <v>75</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
